--- a/experimental_data/liver_bloodflow/Kanda2011.xlsx
+++ b/experimental_data/liver_bloodflow/Kanda2011.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>Kanda2011 – Perfusion measurement of the whole upper abdomen of patients with and without liver diseases</t>
   </si>
@@ -80,6 +80,9 @@
     <t>Estimated hepatic perfusion Standard deviation [ml/min/ml]</t>
   </si>
   <si>
+    <t>Relative variation [ml/min/ml]</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
@@ -113,7 +116,10 @@
     <t>livBloodflowEst</t>
   </si>
   <si>
-    <t>livBloodflowEstEst</t>
+    <t>livBloodflowEstSd</t>
+  </si>
+  <si>
+    <t>livBloodflowError</t>
   </si>
   <si>
     <t>kan2011</t>
@@ -123,9 +129,6 @@
   </si>
   <si>
     <t>U</t>
-  </si>
-  <si>
-    <t>disease</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="M12" activeCellId="0" pane="topLeft" sqref="M12:N20"/>
+      <selection activeCell="O12" activeCellId="0" pane="topLeft" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -601,7 +604,9 @@
       <c r="N10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="4"/>
+      <c r="O10" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -618,54 +623,57 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" s="10" t="n">
         <v>30</v>
@@ -703,16 +711,20 @@
         <f aca="false">(G12+I12)/100</f>
         <v>0.712</v>
       </c>
+      <c r="O12" s="12" t="n">
+        <f aca="false">100*N12/M12</f>
+        <v>44.0321583178726</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="10" t="n">
         <v>30</v>
@@ -750,16 +762,20 @@
         <f aca="false">(G13+I13)/100</f>
         <v>0.558</v>
       </c>
+      <c r="O13" s="12" t="n">
+        <f aca="false">100*N13/M13</f>
+        <v>41.0898379970545</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" s="10" t="n">
         <v>30</v>
@@ -797,16 +813,20 @@
         <f aca="false">(G14+I14)/100</f>
         <v>0.479</v>
       </c>
+      <c r="O14" s="12" t="n">
+        <f aca="false">100*N14/M14</f>
+        <v>38.3506805444355</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" s="10" t="n">
         <v>30</v>
@@ -844,16 +864,20 @@
         <f aca="false">(G15+I15)/100</f>
         <v>0.644</v>
       </c>
+      <c r="O15" s="12" t="n">
+        <f aca="false">100*N15/M15</f>
+        <v>45.5767869780609</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16" s="10" t="n">
         <v>30</v>
@@ -891,16 +915,20 @@
         <f aca="false">(G16+I16)/100</f>
         <v>0.478</v>
       </c>
+      <c r="O16" s="12" t="n">
+        <f aca="false">100*N16/M16</f>
+        <v>33.6619718309859</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" s="10" t="n">
         <v>30</v>
@@ -938,16 +966,20 @@
         <f aca="false">(G17+I17)/100</f>
         <v>0.486</v>
       </c>
+      <c r="O17" s="12" t="n">
+        <f aca="false">100*N17/M17</f>
+        <v>34.5170454545455</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D18" s="10" t="n">
         <v>30</v>
@@ -985,16 +1017,20 @@
         <f aca="false">(G18+I18)/100</f>
         <v>0.501</v>
       </c>
+      <c r="O18" s="12" t="n">
+        <f aca="false">100*N18/M18</f>
+        <v>36.5160349854227</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D19" s="10" t="n">
         <v>30</v>
@@ -1032,52 +1068,19 @@
         <f aca="false">(G19+I19)/100</f>
         <v>0.508</v>
       </c>
+      <c r="O19" s="12" t="n">
+        <f aca="false">100*N19/M19</f>
+        <v>35.6992269852424</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="A20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="E20" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="F20" s="11" t="n">
-        <v>31</v>
-      </c>
-      <c r="G20" s="11" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H20" s="12" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="I20" s="12" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J20" s="12" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="K20" s="12" t="n">
-        <v>19</v>
-      </c>
-      <c r="L20" s="12" t="n">
-        <f aca="false">F20/(H20+F20)*100</f>
-        <v>27.7529095792301</v>
-      </c>
-      <c r="M20" s="4" t="n">
-        <f aca="false">(F20+H20)/100</f>
-        <v>1.117</v>
-      </c>
-      <c r="N20" s="13" t="n">
-        <f aca="false">(G20+I20)/100</f>
-        <v>0.451</v>
+      <c r="M20" s="0" t="n">
+        <f aca="false">SUM(M12:M19)/COUNT(M12:M19)</f>
+        <v>1.4075</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">SUM(N12:N19)/COUNT(N12:N19)</f>
+        <v>0.54575</v>
       </c>
     </row>
   </sheetData>
